--- a/GestionProyectos/analisis.xlsx
+++ b/GestionProyectos/analisis.xlsx
@@ -646,7 +646,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,26 +895,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1133,7 +1135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1421,11 +1423,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -1450,39 +1452,39 @@
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
     <col min="24" max="24" width="4.5703125" customWidth="1"/>
     <col min="25" max="25" width="63.42578125" customWidth="1"/>
-    <col min="26" max="26" width="30.5703125" customWidth="1"/>
+    <col min="26" max="26" width="29.28515625" customWidth="1"/>
     <col min="27" max="27" width="19.42578125" customWidth="1"/>
     <col min="28" max="28" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="25"/>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:28" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1578,9 +1580,9 @@
         <f>L3*M3</f>
         <v>12750000</v>
       </c>
-      <c r="O3" s="32" t="e">
-        <f>N3/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O3" s="32">
+        <f>N3/$N$21</f>
+        <v>2.6023860308000041E-2</v>
       </c>
       <c r="P3" s="31">
         <f>N3*W5</f>
@@ -1668,16 +1670,16 @@
         <f t="shared" ref="N4:N20" si="4">L4*M4</f>
         <v>17136000</v>
       </c>
-      <c r="O4" s="32" t="e">
-        <f>N4/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O4" s="32">
+        <f t="shared" ref="O4:O20" si="5">N4/$N$21</f>
+        <v>3.4976068253952053E-2</v>
       </c>
       <c r="P4" s="31">
         <f>N4*W6</f>
         <v>4284000</v>
       </c>
       <c r="Q4" s="31">
-        <f t="shared" ref="Q4:Q20" si="5">N4-P4</f>
+        <f t="shared" ref="Q4:Q20" si="6">N4-P4</f>
         <v>12852000</v>
       </c>
       <c r="R4" s="39" t="str">
@@ -1750,16 +1752,16 @@
         <f t="shared" si="4"/>
         <v>101035000.00000001</v>
       </c>
-      <c r="O5" s="32" t="e">
-        <f>N5/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O5" s="32">
+        <f t="shared" si="5"/>
+        <v>0.20622123342892429</v>
       </c>
       <c r="P5" s="31">
         <f>N5*W9</f>
         <v>14593944.444444451</v>
       </c>
       <c r="Q5" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86441055.555555567</v>
       </c>
       <c r="R5" s="58" t="s">
@@ -1792,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="96">
-        <f t="shared" ref="AB5:AB35" si="6">AA5*Z5</f>
+        <f t="shared" ref="AB5:AB35" si="7">AA5*Z5</f>
         <v>2900000</v>
       </c>
     </row>
@@ -1843,16 +1845,16 @@
         <f t="shared" si="4"/>
         <v>20750000</v>
       </c>
-      <c r="O6" s="32" t="e">
-        <f>N6/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O6" s="32">
+        <f t="shared" si="5"/>
+        <v>4.2352556971843203E-2</v>
       </c>
       <c r="P6" s="31">
         <f>N6*W13</f>
         <v>6225000.0000000009</v>
       </c>
       <c r="Q6" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14525000</v>
       </c>
       <c r="R6" s="39" t="str">
@@ -1880,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="AB6" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3000000</v>
       </c>
     </row>
@@ -1931,16 +1933,16 @@
         <f t="shared" si="4"/>
         <v>47000000</v>
       </c>
-      <c r="O7" s="32" t="e">
-        <f>N7/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O7" s="32">
+        <f t="shared" si="5"/>
+        <v>9.5931092900078577E-2</v>
       </c>
       <c r="P7" s="31">
         <f>N7*W17</f>
         <v>6266666.6666666651</v>
       </c>
       <c r="Q7" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40733333.333333336</v>
       </c>
       <c r="R7" s="43" t="s">
@@ -1973,7 +1975,7 @@
         <v>70</v>
       </c>
       <c r="AB7" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7000000</v>
       </c>
     </row>
@@ -2024,16 +2026,16 @@
         <f t="shared" si="4"/>
         <v>50700000</v>
       </c>
-      <c r="O8" s="32" t="e">
-        <f>N8/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O8" s="32">
+        <f t="shared" si="5"/>
+        <v>0.10348311510710605</v>
       </c>
       <c r="P8" s="31">
         <f>N8*W19</f>
         <v>5069999.9999999991</v>
       </c>
       <c r="Q8" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45630000</v>
       </c>
       <c r="R8" s="60" t="s">
@@ -2066,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270000</v>
       </c>
     </row>
@@ -2117,16 +2119,16 @@
         <f t="shared" si="4"/>
         <v>20900000</v>
       </c>
-      <c r="O9" s="32" t="e">
-        <f>N9/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O9" s="32">
+        <f t="shared" si="5"/>
+        <v>4.2658720034290262E-2</v>
       </c>
       <c r="P9" s="31">
         <f>N9*W20</f>
         <v>5225000</v>
       </c>
       <c r="Q9" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15675000</v>
       </c>
       <c r="R9" s="39" t="str">
@@ -2154,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="AB9" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5100000</v>
       </c>
     </row>
@@ -2189,16 +2191,16 @@
         <f t="shared" si="4"/>
         <v>11775000</v>
       </c>
-      <c r="O10" s="32" t="e">
-        <f>N10/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O10" s="32">
+        <f t="shared" si="5"/>
+        <v>2.4033800402094154E-2</v>
       </c>
       <c r="P10" s="31">
         <f>N10*W23</f>
         <v>2355000.0000000005</v>
       </c>
       <c r="Q10" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9420000</v>
       </c>
       <c r="R10" s="58" t="s">
@@ -2231,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2500000</v>
       </c>
     </row>
@@ -2264,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" ref="I11:I36" si="7">H11+F11+D11</f>
+        <f t="shared" ref="I11:I36" si="8">H11+F11+D11</f>
         <v>48500000</v>
       </c>
       <c r="J11" s="25"/>
@@ -2282,16 +2284,16 @@
         <f t="shared" si="4"/>
         <v>15050000</v>
       </c>
-      <c r="O11" s="32" t="e">
-        <f>N11/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O11" s="32">
+        <f t="shared" si="5"/>
+        <v>3.0718360598854952E-2</v>
       </c>
       <c r="P11" s="31">
         <f>N11*W27</f>
         <v>3511666.6666666674</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11538333.333333332</v>
       </c>
       <c r="R11" s="47" t="s">
@@ -2324,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
     </row>
@@ -2357,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15000000</v>
       </c>
       <c r="J12" s="25"/>
@@ -2375,16 +2377,16 @@
         <f t="shared" si="4"/>
         <v>5760000</v>
       </c>
-      <c r="O12" s="32" t="e">
-        <f>N12/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O12" s="32">
+        <f t="shared" si="5"/>
+        <v>1.1756661597967077E-2</v>
       </c>
       <c r="P12" s="31">
         <f>N12*W30</f>
         <v>2015999.9999999998</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3744000</v>
       </c>
       <c r="R12" s="57" t="s">
@@ -2417,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="AB12" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1500000</v>
       </c>
     </row>
@@ -2450,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44000000</v>
       </c>
       <c r="J13" s="25"/>
@@ -2468,16 +2470,16 @@
         <f t="shared" si="4"/>
         <v>11077000</v>
       </c>
-      <c r="O13" s="32" t="e">
-        <f>N13/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O13" s="32">
+        <f t="shared" si="5"/>
+        <v>2.2609121618173838E-2</v>
       </c>
       <c r="P13" s="31">
         <f>N13*W33</f>
         <v>5169266.666666667</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5907733.333333333</v>
       </c>
       <c r="R13" s="39" t="str">
@@ -2505,7 +2507,7 @@
         <v>90</v>
       </c>
       <c r="AB13" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900000</v>
       </c>
     </row>
@@ -2538,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36000000</v>
       </c>
       <c r="J14" s="25"/>
@@ -2556,16 +2558,16 @@
         <f t="shared" si="4"/>
         <v>4536000</v>
       </c>
-      <c r="O14" s="32" t="e">
-        <f>N14/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O14" s="32">
+        <f t="shared" si="5"/>
+        <v>9.2583710083990727E-3</v>
       </c>
       <c r="P14" s="31">
         <f>N14*W36</f>
         <v>1058399.9999999998</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3477600</v>
       </c>
       <c r="R14" s="43" t="s">
@@ -2598,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="AB14" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200000</v>
       </c>
     </row>
@@ -2631,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20000000</v>
       </c>
       <c r="J15" s="25"/>
@@ -2649,16 +2651,16 @@
         <f t="shared" si="4"/>
         <v>17226000</v>
       </c>
-      <c r="O15" s="32" t="e">
-        <f>N15/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O15" s="32">
+        <f t="shared" si="5"/>
+        <v>3.515976609142029E-2</v>
       </c>
       <c r="P15" s="31">
         <f>N15*W39</f>
         <v>7273200</v>
       </c>
       <c r="Q15" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9952800</v>
       </c>
       <c r="R15" s="57" t="s">
@@ -2691,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
     </row>
@@ -2728,16 +2730,16 @@
         <f t="shared" si="4"/>
         <v>7600000</v>
       </c>
-      <c r="O16" s="32" t="e">
-        <f>N16/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O16" s="32">
+        <f t="shared" si="5"/>
+        <v>1.5512261830651004E-2</v>
       </c>
       <c r="P16" s="31">
         <f>N16*W43</f>
         <v>3546666.666666667</v>
       </c>
       <c r="Q16" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4053333.333333333</v>
       </c>
       <c r="R16" s="39" t="str">
@@ -2759,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="AB16" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7200000</v>
       </c>
     </row>
@@ -2792,7 +2794,7 @@
         <v>1000000</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27500000</v>
       </c>
       <c r="J17" s="25"/>
@@ -2810,16 +2812,16 @@
         <f t="shared" si="4"/>
         <v>9600000</v>
       </c>
-      <c r="O17" s="32" t="e">
-        <f>N17/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O17" s="32">
+        <f t="shared" si="5"/>
+        <v>1.9594435996611797E-2</v>
       </c>
       <c r="P17" s="31">
         <f>N17*W46</f>
         <v>3840000</v>
       </c>
       <c r="Q17" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5760000</v>
       </c>
       <c r="R17" s="57" t="s">
@@ -2852,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="AB17" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15000000</v>
       </c>
     </row>
@@ -2885,7 +2887,7 @@
         <v>700000</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15700000</v>
       </c>
       <c r="J18" s="25"/>
@@ -2903,16 +2905,16 @@
         <f t="shared" si="4"/>
         <v>34960000</v>
       </c>
-      <c r="O18" s="32" t="e">
-        <f>N18/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O18" s="32">
+        <f t="shared" si="5"/>
+        <v>7.1356404420994626E-2</v>
       </c>
       <c r="P18" s="31">
         <f>N18*W49</f>
         <v>12430222.222222222</v>
       </c>
       <c r="Q18" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22529777.777777776</v>
       </c>
       <c r="R18" s="33" t="str">
@@ -2935,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="AB18" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15000000</v>
       </c>
     </row>
@@ -2968,7 +2970,7 @@
         <v>1000000</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21000000</v>
       </c>
       <c r="J19" s="25"/>
@@ -2986,16 +2988,16 @@
         <f t="shared" si="4"/>
         <v>57200000</v>
       </c>
-      <c r="O19" s="32" t="e">
-        <f>N19/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O19" s="32">
+        <f t="shared" si="5"/>
+        <v>0.11675018114647862</v>
       </c>
       <c r="P19" s="31">
         <f>N19*W53</f>
         <v>14299999.999999996</v>
       </c>
       <c r="Q19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42900000</v>
       </c>
       <c r="R19" s="57" t="s">
@@ -3028,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="AB19" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54000</v>
       </c>
     </row>
@@ -3061,7 +3063,7 @@
         <v>900000</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20900000</v>
       </c>
       <c r="J20" s="25"/>
@@ -3079,16 +3081,16 @@
         <f t="shared" si="4"/>
         <v>44880000</v>
       </c>
-      <c r="O20" s="32" t="e">
-        <f>N20/$N$26</f>
-        <v>#DIV/0!</v>
+      <c r="O20" s="32">
+        <f t="shared" si="5"/>
+        <v>9.1603988284160137E-2</v>
       </c>
       <c r="P20" s="31">
         <f>N20*W56</f>
         <v>11968000</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32912000</v>
       </c>
       <c r="R20" s="39" t="str">
@@ -3116,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>216000</v>
       </c>
     </row>
@@ -3149,10 +3151,19 @@
         <v>1000000</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23500000</v>
       </c>
       <c r="J21" s="25"/>
+      <c r="N21" s="109">
+        <f>SUM(N3:N20)</f>
+        <v>489935000</v>
+      </c>
+      <c r="O21" s="110"/>
+      <c r="Q21" s="109">
+        <f>SUM(Q3:Q20)</f>
+        <v>378251966.66666669</v>
+      </c>
       <c r="R21" s="58" t="s">
         <v>40</v>
       </c>
@@ -3184,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2900000</v>
       </c>
     </row>
@@ -3238,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="AB22" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28500000</v>
       </c>
     </row>
@@ -3271,7 +3282,7 @@
         <v>3600000</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9200000</v>
       </c>
       <c r="J23" s="25"/>
@@ -3301,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="AB23" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1650000</v>
       </c>
     </row>
@@ -3334,7 +3345,7 @@
         <v>3200000</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9100000</v>
       </c>
       <c r="J24" s="25"/>
@@ -3369,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>490000</v>
       </c>
     </row>
@@ -3402,7 +3413,7 @@
         <v>1200000</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7200000</v>
       </c>
       <c r="J25" s="25"/>
@@ -3437,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="AB25" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1650000</v>
       </c>
     </row>
@@ -3470,7 +3481,7 @@
         <v>1200000</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7200000</v>
       </c>
       <c r="J26" s="25"/>
@@ -3504,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="AB26" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25890</v>
       </c>
     </row>
@@ -3537,7 +3548,7 @@
         <v>2400000</v>
       </c>
       <c r="I27" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8400000</v>
       </c>
       <c r="J27" s="25"/>
@@ -3574,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="AB27" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1800000</v>
       </c>
     </row>
@@ -3635,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="AB28" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
     </row>
@@ -3650,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" ref="D29:D36" si="8">($C$28*C29)</f>
+        <f t="shared" ref="D29:D36" si="9">($C$28*C29)</f>
         <v>40000000</v>
       </c>
       <c r="E29" s="9"/>
@@ -3664,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40000000</v>
       </c>
       <c r="J29" s="25"/>
@@ -3706,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="AB29" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
     </row>
@@ -3721,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40000000</v>
       </c>
       <c r="E30" s="9"/>
@@ -3735,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40000000</v>
       </c>
       <c r="J30" s="25"/>
@@ -3768,7 +3779,7 @@
         <v>6</v>
       </c>
       <c r="AB30" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3600000</v>
       </c>
     </row>
@@ -3783,7 +3794,7 @@
         <v>0.2</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8000000</v>
       </c>
       <c r="E31" s="9">
@@ -3801,7 +3812,7 @@
         <v>54000000</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>94000000</v>
       </c>
       <c r="J31" s="25"/>
@@ -3839,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="AB31" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3560000</v>
       </c>
     </row>
@@ -3854,7 +3865,7 @@
         <v>0.9</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36000000</v>
       </c>
       <c r="E32" s="9">
@@ -3872,7 +3883,7 @@
         <v>6000000</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46000000</v>
       </c>
       <c r="J32" s="25"/>
@@ -3910,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="AB32" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
     </row>
@@ -3925,7 +3936,7 @@
         <v>0.2</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8000000</v>
       </c>
       <c r="E33" s="9">
@@ -3943,7 +3954,7 @@
         <v>48000000</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88000000</v>
       </c>
       <c r="J33" s="25"/>
@@ -3976,7 +3987,7 @@
         <v>160</v>
       </c>
       <c r="AB33" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7200000</v>
       </c>
     </row>
@@ -3991,7 +4002,7 @@
         <v>0.2</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8000000</v>
       </c>
       <c r="E34" s="9">
@@ -4009,7 +4020,7 @@
         <v>48000000</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88000000</v>
       </c>
       <c r="J34" s="25"/>
@@ -4047,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="AB34" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
     </row>
@@ -4118,7 +4129,7 @@
         <v>5</v>
       </c>
       <c r="AB35" s="96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1425000</v>
       </c>
     </row>
@@ -4133,7 +4144,7 @@
         <v>0.8</v>
       </c>
       <c r="D36" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32000000</v>
       </c>
       <c r="E36" s="19">
@@ -4151,7 +4162,7 @@
         <v>42000000</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>102000000</v>
       </c>
       <c r="J36" s="25"/>
@@ -4237,8 +4248,8 @@
         <v>80</v>
       </c>
       <c r="Z38" s="101">
-        <f>Q26-AB36</f>
-        <v>-127790890</v>
+        <f>SUM(Q3:Q20)-AB36</f>
+        <v>250461076.66666669</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
